--- a/BackTest/2020-01-21 BackTest WTC.xlsx
+++ b/BackTest/2020-01-21 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-115186.8534</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-119831.6239</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-119854.3291</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-119941.1822</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-127997.6657</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-127996.5657</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-119319.5623</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-119319.5623</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-119331.0935</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-119331.0935</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-119577.9941</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-120620.9523</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-120619.8523</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-120639.5598999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-120639.5598999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-124351.2726999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-124685.0263999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-125655.5282999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-125726.7282999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-138126.4497999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-135431.2025</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-135520.3025</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-139947.4292</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-134624.3602999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-154209.4220999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-154208.3220999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-154222.6861999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-154237.0502999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-154237.0502999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-154227.3068999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-154266.8163999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-154266.8163999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-154266.8163999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -5137,17 +5137,11 @@
         <v>-223023.5944568632</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>472.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5180,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5217,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5254,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5291,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5328,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5365,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5402,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5439,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5476,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5513,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5550,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5587,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5624,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5661,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5735,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5772,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5809,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5846,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5883,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5957,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5994,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6068,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6142,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6175,15 +6061,11 @@
         <v>-213276.9013568631</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6212,15 +6094,11 @@
         <v>-231964.8765568631</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6249,15 +6127,11 @@
         <v>-231941.3765568631</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6286,15 +6160,11 @@
         <v>-231601.6012270681</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6327,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6364,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6401,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6438,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6475,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6512,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6545,15 +6391,11 @@
         <v>-252491.487727068</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6586,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6623,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6660,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6697,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6734,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6771,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6808,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6882,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6956,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6993,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7030,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7067,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7104,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7141,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7178,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7215,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7252,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7289,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7326,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7363,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7400,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7437,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7474,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7511,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7548,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7585,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7622,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7659,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7696,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7733,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7770,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7807,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7844,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7881,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7918,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7955,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7992,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8029,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8066,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8103,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8177,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8214,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8251,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8288,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8325,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8362,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8399,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8436,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8510,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8547,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8584,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8621,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8658,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8695,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8728,15 +8338,15 @@
         <v>-284742.127603491</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>473.6</v>
+      </c>
+      <c r="J241" t="n">
+        <v>473.6</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8768,10 +8378,12 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L242" t="n">
@@ -8805,7 +8417,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8842,7 +8456,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8879,7 +8495,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8916,7 +8534,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8953,7 +8573,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8990,7 +8612,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9027,7 +8651,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9061,10 +8687,14 @@
         <v>-303000.7577583047</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>470.6</v>
+      </c>
+      <c r="J250" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9098,10 +8728,14 @@
         <v>-301372.0107583047</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>470.6</v>
+      </c>
+      <c r="J251" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9135,10 +8769,14 @@
         <v>-301372.0107583047</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>472</v>
+      </c>
+      <c r="J252" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9175,7 +8813,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9212,7 +8852,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9249,7 +8891,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9286,7 +8930,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9323,7 +8969,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9360,7 +9008,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9397,7 +9047,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9434,7 +9086,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9471,7 +9125,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9508,7 +9164,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9545,7 +9203,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9582,7 +9242,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9619,7 +9281,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9656,7 +9320,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9690,10 +9356,14 @@
         <v>-306862.0209583048</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>476.5</v>
+      </c>
+      <c r="J267" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9730,7 +9400,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9767,7 +9439,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9804,7 +9478,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9838,10 +9514,14 @@
         <v>-307267.6917583047</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>470.4</v>
+      </c>
+      <c r="J271" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9875,10 +9555,14 @@
         <v>-302264.1043583047</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>471.2</v>
+      </c>
+      <c r="J272" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9912,10 +9596,14 @@
         <v>-302420.1891583047</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>472</v>
+      </c>
+      <c r="J273" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9949,10 +9637,14 @@
         <v>-302418.3299583047</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>470.6</v>
+      </c>
+      <c r="J274" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9989,7 +9681,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10026,7 +9720,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10060,10 +9756,14 @@
         <v>-299889.9331583047</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>472.1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10097,10 +9797,14 @@
         <v>-299931.9331583047</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>480</v>
+      </c>
+      <c r="J278" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10134,10 +9838,14 @@
         <v>-298631.5252583047</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>475</v>
+      </c>
+      <c r="J279" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10171,10 +9879,14 @@
         <v>-298632.5682583047</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>480.7</v>
+      </c>
+      <c r="J280" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10211,7 +9923,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10245,10 +9959,14 @@
         <v>-302214.3959583047</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>472.3</v>
+      </c>
+      <c r="J282" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10282,10 +10000,14 @@
         <v>-302213.3549583047</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>471.3</v>
+      </c>
+      <c r="J283" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10322,7 +10044,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10359,7 +10083,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10396,7 +10122,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10433,7 +10161,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10470,7 +10200,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10507,7 +10239,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10544,7 +10278,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10581,7 +10317,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10618,7 +10356,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10655,7 +10395,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10692,7 +10434,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,10 +10470,14 @@
         <v>-304893.9317722092</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>473.1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10766,7 +10514,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10803,7 +10553,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10840,7 +10592,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10874,10 +10628,14 @@
         <v>-306905.3617722092</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>476</v>
+      </c>
+      <c r="J299" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10914,7 +10672,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10951,7 +10711,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,10 +10747,14 @@
         <v>-307236.1413722092</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>475</v>
+      </c>
+      <c r="J302" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11022,10 +10788,14 @@
         <v>-307247.8425722092</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>474.9</v>
+      </c>
+      <c r="J303" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11059,10 +10829,14 @@
         <v>-307238.6025722092</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>471.9</v>
+      </c>
+      <c r="J304" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11096,10 +10870,14 @@
         <v>-307237.5495722092</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>472.6</v>
+      </c>
+      <c r="J305" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11136,7 +10914,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11170,10 +10950,14 @@
         <v>-309630.1313722092</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>471.9</v>
+      </c>
+      <c r="J307" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11207,10 +10991,14 @@
         <v>-321530.1496722092</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>471.5</v>
+      </c>
+      <c r="J308" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11247,7 +11035,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11284,7 +11074,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11321,7 +11113,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11355,10 +11149,14 @@
         <v>-323313.1114722092</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>469.5</v>
+      </c>
+      <c r="J312" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,7 +11193,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11432,7 +11232,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11469,7 +11271,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11506,7 +11310,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11543,7 +11349,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11580,7 +11388,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11617,7 +11427,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11651,10 +11463,14 @@
         <v>-323660.8432722091</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>470.5</v>
+      </c>
+      <c r="J320" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11691,7 +11507,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11725,10 +11543,14 @@
         <v>-323901.8951722091</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>469.3</v>
+      </c>
+      <c r="J322" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11762,12 +11584,14 @@
         <v>-323900.8451722091</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>473.9</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11801,12 +11625,12 @@
         <v>-324447.7226722091</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>477.7</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11840,12 +11664,12 @@
         <v>-324451.7226722091</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>477.2</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11879,10 +11703,14 @@
         <v>-325093.0242722091</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>470.1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11916,12 +11744,14 @@
         <v>-325091.9662722091</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>469.4</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11955,10 +11785,14 @@
         <v>-327686.4651722091</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>473</v>
+      </c>
+      <c r="J328" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11992,12 +11826,14 @@
         <v>-327685.4071722091</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>469.4</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12031,10 +11867,14 @@
         <v>-322932.3340722091</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>472.9</v>
+      </c>
+      <c r="J330" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,12 +11908,14 @@
         <v>-322932.3340722091</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>473.7</v>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12107,12 +11949,14 @@
         <v>-320913.0340722091</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>473.7</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12149,7 +11993,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12186,7 +12032,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12220,10 +12068,14 @@
         <v>-323358.2578722092</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>477.7</v>
+      </c>
+      <c r="J335" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12257,10 +12109,14 @@
         <v>-324428.8507722092</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>477.7</v>
+      </c>
+      <c r="J336" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12294,10 +12150,14 @@
         <v>-324342.8507722092</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>472.1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12334,7 +12194,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12371,7 +12233,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12408,7 +12272,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12445,7 +12311,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12482,7 +12350,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12519,7 +12389,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12556,7 +12428,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12593,7 +12467,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12630,7 +12506,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12667,7 +12545,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12704,7 +12584,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12741,7 +12623,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12778,7 +12662,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12815,7 +12701,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12852,7 +12740,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12889,7 +12779,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12926,7 +12818,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12963,7 +12857,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13000,7 +12896,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13037,7 +12935,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13074,7 +12974,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13111,7 +13013,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13148,7 +13052,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13185,7 +13091,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13222,7 +13130,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13259,7 +13169,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13296,7 +13208,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13333,7 +13247,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13370,7 +13286,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13407,7 +13325,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13444,7 +13364,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13481,7 +13403,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13518,7 +13442,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13555,7 +13481,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13592,7 +13520,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,7 +13559,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13666,7 +13598,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13703,7 +13637,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13740,7 +13676,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13777,7 +13715,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13814,7 +13754,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13851,7 +13793,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13888,7 +13832,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13922,10 +13868,14 @@
         <v>-331864.4371222093</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>468.5</v>
+      </c>
+      <c r="J381" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13959,10 +13909,14 @@
         <v>-331863.3371222093</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>468.5</v>
+      </c>
+      <c r="J382" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13999,7 +13953,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14036,7 +13992,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14073,7 +14031,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14110,7 +14070,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14147,7 +14109,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14184,7 +14148,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14221,7 +14187,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14258,7 +14226,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14295,7 +14265,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14332,7 +14304,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14369,7 +14343,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14406,7 +14382,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14443,7 +14421,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14480,7 +14460,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14517,7 +14499,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>473.6</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14529,6 +14513,6 @@
       <c r="M397" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WTC.xlsx
+++ b/BackTest/2020-01-21 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-119831.6239</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-119854.3291</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-119941.1822</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-127997.6657</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-127996.5657</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-119319.5623</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-119319.5623</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-119331.0935</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-119331.0935</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-119577.9941</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-120620.9523</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-120619.8523</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-120639.5598999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-120639.5598999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-124351.2726999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-124685.0263999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-125655.5282999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-125726.7282999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-138126.4497999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-135431.2025</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-135520.3025</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-139947.4292</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-134624.3602999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-154209.4220999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-154208.3220999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-154222.6861999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-154237.0502999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-154237.0502999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-154227.3068999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-154266.8163999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-154266.8163999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-154266.8163999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-155521.1097568631</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-155563.2166568631</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-218314.4888231327</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-217374.0260998082</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-196517.0005568631</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-188810.0456568631</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-188810.0456568631</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-190951.4226568631</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-188626.0757568631</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-188986.7359568632</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-189291.0614568632</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-231574.070927068</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-231532.264727068</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-235736.3262270681</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-235734.2287270681</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-252493.5750270681</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-252491.487727068</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-252534.1215270681</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-264764.9188270681</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-264764.9188270681</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-274316.4275270681</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -8338,14 +8338,10 @@
         <v>-284742.127603491</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="J241" t="n">
-        <v>473.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
@@ -8378,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8417,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8456,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8492,17 +8470,11 @@
         <v>-295900.5068583047</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8534,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8570,17 +8536,11 @@
         <v>-296873.3252583047</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8612,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8651,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8687,19 +8635,11 @@
         <v>-303000.7577583047</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>470.6</v>
-      </c>
-      <c r="J250" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8728,19 +8668,11 @@
         <v>-301372.0107583047</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>470.6</v>
-      </c>
-      <c r="J251" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8769,19 +8701,11 @@
         <v>-301372.0107583047</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>472</v>
-      </c>
-      <c r="J252" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8813,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8852,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8891,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8930,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8969,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9008,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9047,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9086,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9125,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9164,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9203,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9242,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9281,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9320,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9356,19 +9196,11 @@
         <v>-306862.0209583048</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>476.5</v>
-      </c>
-      <c r="J267" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9400,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9439,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9478,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9514,19 +9328,11 @@
         <v>-307267.6917583047</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>470.4</v>
-      </c>
-      <c r="J271" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9555,19 +9361,11 @@
         <v>-302264.1043583047</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>471.2</v>
-      </c>
-      <c r="J272" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9596,19 +9394,11 @@
         <v>-302420.1891583047</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>472</v>
-      </c>
-      <c r="J273" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9637,19 +9427,11 @@
         <v>-302418.3299583047</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>470.6</v>
-      </c>
-      <c r="J274" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9681,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9720,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9756,19 +9526,11 @@
         <v>-299889.9331583047</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>472.1</v>
-      </c>
-      <c r="J277" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9797,19 +9559,11 @@
         <v>-299931.9331583047</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>480</v>
-      </c>
-      <c r="J278" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9838,19 +9592,11 @@
         <v>-298631.5252583047</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>475</v>
-      </c>
-      <c r="J279" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9879,19 +9625,11 @@
         <v>-298632.5682583047</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>480.7</v>
-      </c>
-      <c r="J280" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9923,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9959,19 +9691,11 @@
         <v>-302214.3959583047</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>472.3</v>
-      </c>
-      <c r="J282" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10000,19 +9724,11 @@
         <v>-302213.3549583047</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>471.3</v>
-      </c>
-      <c r="J283" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10044,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10083,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10122,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10161,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10200,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10239,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10278,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10317,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10356,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10395,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10434,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10470,19 +10120,11 @@
         <v>-304893.9317722092</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>473.1</v>
-      </c>
-      <c r="J295" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10514,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10553,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10592,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10628,19 +10252,11 @@
         <v>-306905.3617722092</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>476</v>
-      </c>
-      <c r="J299" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10672,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10711,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10747,19 +10351,11 @@
         <v>-307236.1413722092</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>475</v>
-      </c>
-      <c r="J302" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10788,19 +10384,11 @@
         <v>-307247.8425722092</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>474.9</v>
-      </c>
-      <c r="J303" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10829,19 +10417,11 @@
         <v>-307238.6025722092</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>471.9</v>
-      </c>
-      <c r="J304" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10870,19 +10450,11 @@
         <v>-307237.5495722092</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>472.6</v>
-      </c>
-      <c r="J305" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10914,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10950,19 +10516,11 @@
         <v>-309630.1313722092</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>471.9</v>
-      </c>
-      <c r="J307" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10991,19 +10549,11 @@
         <v>-321530.1496722092</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>471.5</v>
-      </c>
-      <c r="J308" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11035,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11074,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11113,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11149,19 +10681,11 @@
         <v>-323313.1114722092</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>469.5</v>
-      </c>
-      <c r="J312" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11193,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11232,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11271,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11310,14 +10816,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11349,14 +10849,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11388,14 +10882,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11427,14 +10915,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11463,19 +10945,11 @@
         <v>-323660.8432722091</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>470.5</v>
-      </c>
-      <c r="J320" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11507,14 +10981,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11543,19 +11011,11 @@
         <v>-323901.8951722091</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>469.3</v>
-      </c>
-      <c r="J322" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11584,19 +11044,11 @@
         <v>-323900.8451722091</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>473.9</v>
-      </c>
-      <c r="J323" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11628,14 +11080,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11667,14 +11113,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11703,19 +11143,11 @@
         <v>-325093.0242722091</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>470.1</v>
-      </c>
-      <c r="J326" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11744,19 +11176,11 @@
         <v>-325091.9662722091</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>469.4</v>
-      </c>
-      <c r="J327" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11785,19 +11209,11 @@
         <v>-327686.4651722091</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>473</v>
-      </c>
-      <c r="J328" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11826,19 +11242,11 @@
         <v>-327685.4071722091</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>469.4</v>
-      </c>
-      <c r="J329" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11867,19 +11275,11 @@
         <v>-322932.3340722091</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>472.9</v>
-      </c>
-      <c r="J330" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11908,19 +11308,11 @@
         <v>-322932.3340722091</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>473.7</v>
-      </c>
-      <c r="J331" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11949,19 +11341,11 @@
         <v>-320913.0340722091</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>473.7</v>
-      </c>
-      <c r="J332" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11993,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12032,14 +11410,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12068,19 +11440,11 @@
         <v>-323358.2578722092</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>477.7</v>
-      </c>
-      <c r="J335" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12109,19 +11473,11 @@
         <v>-324428.8507722092</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>477.7</v>
-      </c>
-      <c r="J336" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12150,19 +11506,11 @@
         <v>-324342.8507722092</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>472.1</v>
-      </c>
-      <c r="J337" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12194,14 +11542,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12233,14 +11575,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12272,14 +11608,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12311,14 +11641,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12350,14 +11674,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12389,14 +11707,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12428,14 +11740,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12467,14 +11773,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12506,14 +11806,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12545,14 +11839,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12584,14 +11872,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12623,14 +11905,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12662,14 +11938,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12701,14 +11971,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12740,14 +12004,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12779,14 +12037,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12818,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12857,14 +12103,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12896,14 +12136,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12935,14 +12169,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12974,14 +12202,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13013,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13052,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13091,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13130,14 +12334,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13169,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13208,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13247,14 +12433,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13286,14 +12466,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13325,14 +12499,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13364,14 +12532,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13403,14 +12565,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13442,14 +12598,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13481,14 +12631,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13520,14 +12664,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13559,14 +12697,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13598,14 +12730,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13637,14 +12763,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13676,14 +12796,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13715,14 +12829,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13754,14 +12862,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13793,14 +12895,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13832,14 +12928,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13868,19 +12958,11 @@
         <v>-331864.4371222093</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>468.5</v>
-      </c>
-      <c r="J381" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13909,19 +12991,11 @@
         <v>-331863.3371222093</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>468.5</v>
-      </c>
-      <c r="J382" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13953,14 +13027,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13992,14 +13060,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14031,14 +13093,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14070,14 +13126,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14109,14 +13159,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14148,14 +13192,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14187,14 +13225,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14226,14 +13258,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14265,14 +13291,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14304,14 +13324,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14343,14 +13357,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14382,14 +13390,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14421,14 +13423,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14460,14 +13456,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14496,23 +13486,21 @@
         <v>-362176.0365222093</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>470.4</v>
+      </c>
       <c r="J397" t="n">
-        <v>473.6</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>470.4</v>
+      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
       <c r="M397" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WTC.xlsx
+++ b/BackTest/2020-01-21 BackTest WTC.xlsx
@@ -451,7 +451,7 @@
         <v>-115186.8534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-119831.6239</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-119319.5623</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-119319.5623</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-119328.5623</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-119331.0935</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-119577.9941</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-155521.1097568631</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-155563.2166568631</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-218314.4888231327</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-217374.0260998082</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-196517.0005568631</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-188810.0456568631</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-188810.0456568631</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-188922.8983568632</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-189291.0614568632</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-189395.6284568632</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-182687.5032568632</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-182686.3032568631</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-183838.7308568631</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-183837.6308568631</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-183843.9295568631</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-183843.9295568631</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-195583.3198568631</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-205271.3959568632</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-205270.2959568631</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-213276.9013568631</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-231964.8765568631</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-231941.3765568631</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-231601.6012270681</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-231621.6012270681</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-231574.070927068</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-231532.264727068</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-252534.1215270681</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-264764.9188270681</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-264764.9188270681</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-274316.4275270681</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-295900.5068583047</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-296873.3252583047</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10747,10 +10747,14 @@
         <v>-323666.7723722092</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>469.5</v>
+      </c>
+      <c r="J314" t="n">
+        <v>469.5</v>
+      </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
@@ -10780,11 +10784,19 @@
         <v>-323665.7123722092</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>469.5</v>
+      </c>
+      <c r="J315" t="n">
+        <v>469.5</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +10828,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>469.5</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +10963,17 @@
         <v>-323660.8432722091</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>470.5</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11002,17 @@
         <v>-323902.9511722091</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>470.1</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11041,17 @@
         <v>-323901.8951722091</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>469.3</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11080,17 @@
         <v>-323900.8451722091</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>473.9</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11123,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11160,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11193,17 @@
         <v>-325093.0242722091</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>470.1</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11232,17 @@
         <v>-325091.9662722091</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>469.4</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11271,17 @@
         <v>-327686.4651722091</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>473</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11310,17 @@
         <v>-327685.4071722091</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>469.4</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11349,17 @@
         <v>-322932.3340722091</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>472.9</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11388,17 @@
         <v>-322932.3340722091</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>473.7</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11427,17 @@
         <v>-320913.0340722091</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>473.7</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11470,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11507,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11544,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11581,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11614,17 @@
         <v>-324342.8507722092</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>472.1</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11657,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11694,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11731,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +11768,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11805,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11842,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11879,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,14 +11912,16 @@
         <v>-299028.8193222092</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
@@ -11803,7 +11947,7 @@
         <v>-296837.7322222092</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11980,7 @@
         <v>-296852.9948222092</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +12013,7 @@
         <v>-300741.5523222092</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +12046,7 @@
         <v>-300815.4296222092</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +12079,7 @@
         <v>-300813.4296222092</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +12112,7 @@
         <v>-300977.1050222092</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12145,7 @@
         <v>-300926.3784222092</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12178,7 @@
         <v>-305819.1608222093</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12211,7 @@
         <v>-305819.1608222093</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12244,7 @@
         <v>-306578.4311222092</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12277,7 @@
         <v>-306430.8381222092</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12310,7 @@
         <v>-308201.5038222093</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12343,7 @@
         <v>-308275.2169222092</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12376,7 @@
         <v>-307008.2746222093</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12298,7 +12442,7 @@
         <v>-307194.7461222092</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12475,7 @@
         <v>-307080.5841222092</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12508,7 @@
         <v>-308099.5994222093</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12541,7 @@
         <v>-310303.7310222093</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12574,7 @@
         <v>-310400.0886222093</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13486,14 +13630,10 @@
         <v>-362176.0365222093</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>470.4</v>
-      </c>
-      <c r="J397" t="n">
-        <v>470.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
